--- a/Document/FeatureList.xlsx
+++ b/Document/FeatureList.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="1" r:id="rId1"/>
+    <sheet name="DBRecord" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -50,6 +51,21 @@
   </si>
   <si>
     <t>Doing</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -423,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -654,4 +670,263 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29">
+      <formula1>$I$2:$I$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/FeatureList.xlsx
+++ b/Document/FeatureList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank </t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,9 +728,15 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
